--- a/SqlServerDBTable/DataBaseDesign.xlsx
+++ b/SqlServerDBTable/DataBaseDesign.xlsx
@@ -7,18 +7,22 @@
     <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
   </bookViews>
   <sheets>
-    <sheet name="T_ANIME_TBL" sheetId="1" r:id="rId1"/>
-    <sheet name="T_CHARACTER_TBL" sheetId="2" r:id="rId2"/>
-    <sheet name="T_COMPANY_TBL" sheetId="3" r:id="rId3"/>
-    <sheet name="T_CV_TBL" sheetId="4" r:id="rId4"/>
-    <sheet name="T_PLAYINFO_TBL" sheetId="5" r:id="rId5"/>
+    <sheet name="更新履历" sheetId="9" r:id="rId1"/>
+    <sheet name="T_ANIME_TBL" sheetId="1" r:id="rId2"/>
+    <sheet name="T_CHARACTER_TBL" sheetId="2" r:id="rId3"/>
+    <sheet name="T_COMPANY_TBL" sheetId="3" r:id="rId4"/>
+    <sheet name="T_CV_TBL" sheetId="4" r:id="rId5"/>
+    <sheet name="T_PLAYINFO_TBL" sheetId="5" r:id="rId6"/>
+    <sheet name="T_ALBUM_TBL" sheetId="6" r:id="rId7"/>
+    <sheet name="T_TRACK_TBL" sheetId="7" r:id="rId8"/>
+    <sheet name="T_ARTIST_TBL" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="179">
   <si>
     <t>既有序号，代码中发番</t>
     <phoneticPr fontId="1"/>
@@ -36,20 +40,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[dbo].[T_CHARACTER_TBL](</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>角色名</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[dbo].[T_COMPANY_TBL](</t>
-  </si>
-  <si>
-    <t>[dbo].[T_CV_TBL](</t>
-  </si>
-  <si>
     <r>
       <t>声</t>
     </r>
@@ -137,9 +131,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[dbo].[T_PLAYINFO_TBL](</t>
-  </si>
-  <si>
     <t>动画ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -190,8 +181,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>状</t>
+    <t>收看时间</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主角FLG 0/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>制作公司ID 代</t>
     </r>
     <r>
       <rPr>
@@ -202,21 +201,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>态：[1]放送中 [2]完结 [3]新企划 [9]弃置</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>收看时间</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>主角FLG 0/1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>制作公司ID 代</t>
+      <t>码中发番</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>事</t>
     </r>
     <r>
       <rPr>
@@ -227,59 +218,34 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>务所ID 暂时不使用 固定0</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>播放信息ID 代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>码中发番</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>事</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>务所ID 暂时不使用 固定0</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>播放信息ID 代</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>码中发番</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ANIME_NO</t>
   </si>
   <si>
-    <t>[char](4) NOT NULL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PLAYINFO_ID</t>
   </si>
   <si>
-    <t>[INT] NOT NULL,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[int] NOT NULL,</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -291,52 +257,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[] [date] NULL,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>START_TIME</t>
   </si>
   <si>
-    <t>[] [date] NULL,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>WATCH_TIME</t>
   </si>
   <si>
-    <t>[] [int] NULL,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PARTS</t>
   </si>
   <si>
-    <t>[] [int] NOT NULL,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>STATUS</t>
   </si>
   <si>
-    <t>[] [int] NULL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>COMPANY_ID</t>
   </si>
   <si>
-    <t>[][varchar][10] NOT NULL,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CHARACTER_NO</t>
   </si>
   <si>
-    <t>[] [varchar](255) NOT NULL,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CHARACTER_NAME</t>
   </si>
   <si>
@@ -381,10 +319,6 @@
   </si>
   <si>
     <t>[int] NULL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[] [int]  NOT NULL,</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -442,8 +376,105 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>原作：[1]漫画 [2]小</t>
+    <t>ANIME_CHN_NAME</t>
+  </si>
+  <si>
+    <t>ANIME_JPN_NAME</t>
+  </si>
+  <si>
+    <t>ANIME_NN</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ORIGINAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_CHARACTER_TBL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[varchar](255) NOT NULL,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[varchar][10] NOT NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[varchar](255) NOT NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_ANIME_TBL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_COMPANY_TBL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_CV_TBL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[int]  NOT NULL,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_PLAYINFO_TBL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[int] NULL,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_ALBUM_TBL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALBUM_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_TRACK_TBL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TRACK_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P_ALBUM_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[smallint] NOT NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[smallint] NOT NULL,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[nvarchar(1000)]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[int]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MUSIC_STATUS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>状</t>
     </r>
     <r>
       <rPr>
@@ -454,18 +485,1252 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>说</t>
+      <t>态：
+[1]放送中 
+[2]完结 
+[3]新企划 
+[9]弃置</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALBUM_TYPE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[string] PK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[char(1)] not null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[A]OP/ED
+[B]角色歌
+[C]OST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GENDER_ID</t>
+  </si>
+  <si>
+    <t>ENABLE_FLG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有效性FLAG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LAST_UPDATE_DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>最</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>终</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALBUM_INANIME_NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3位数字</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOTAL_DISC_COUNT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOTAL_TRACK_COUNT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALBUM_ANIME_TYPE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALBUM_TITLE_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[char(1000)] NOT NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>smallint NOT NULL</t>
+  </si>
+  <si>
+    <t>smallint NOT NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(255) NOT NULL,</t>
+  </si>
+  <si>
+    <t>varchar(10) NOT NULL,</t>
+  </si>
+  <si>
+    <t>smallint NOT NULL,</t>
+  </si>
+  <si>
+    <t>状态：
+1放送中 
+2完结 
+3新企划 
+9弃置</t>
+  </si>
+  <si>
+    <t>原作：
+1漫画 
+2小说 
+3原创 
+4影视 
+5游戏 
+9其他</t>
+  </si>
+  <si>
+    <t>音乐收集状态：
+0完成收集 
+1部分收集 
+2未收集 
+9放弃收集</t>
+  </si>
+  <si>
+    <t>bit NOT NULL DEFAULT 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>datetime NOT NULL DEFAULT GETDATE()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string PK</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>10]Vocal Song/歌曲 11]Vocal Song Inst. Ver./歌曲伴奏 
+21]Soundtrack 演奏 
+30]Drama/演剧 
+40]Radio/广播剧
+51]Voice/铃声或短声音</t>
+  </si>
+  <si>
+    <t>smallint default:1;NOT NULL</t>
+  </si>
+  <si>
+    <t>nvarchar(1000)</t>
+  </si>
+  <si>
+    <t>string not null</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>nvarchar(1000)not null</t>
+  </si>
+  <si>
+    <t>nchar(4) NOT NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_ARTIST_TBL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ARTIST_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string primary key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演唱者ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R+9位数字</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ARTIST_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">smallint not null </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID
+[1]男
+[2]女
+[3]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>团</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>体
+[9]其他</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CHARACTER_FLG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bit not null DEFAULT 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>角色歌（含角色唱OP/ED)FLAG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CHARACTER_LIST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nvarchar(1000)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，'/'分隔</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CV_FLG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>优</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FLAG</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CV_LIST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>优</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENABLE_FLG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bit NOT NULL DEFAULT 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有效性FLAG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LAST_UPDATE_DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>datetime NOT NULL DEFAULT GETDATE()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>最</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>终</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>曲ID</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>T+9位数字，代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>番</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>所属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专辑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_ALBUM_TBL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TRACK_TYPE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISC_NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专辑编</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TRACK_NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>轨</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TRACK_TITLE_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曲名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ARTIST_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演唱者ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_ARTIST_TBL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ANIME_NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_ANIME_TBL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SALES_YEAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>售年份</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENABLE_FLG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bit NOT NULL DEFAULT 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有效性FLAG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LAST_UPDATE_DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>datetime NOT NULL DEFAULT GETDATE()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>最</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>终</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专辑编</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>A+9位数字，代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>番</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专辑动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>所属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专辑编</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专辑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>[10]Vocal Song/歌曲 [11]Vocal Song Inst. Ver./歌曲伴奏 
+[21]Soundtrack 演奏 
+[30]Drama/演</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>剧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+[40]Radio/广播</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">剧
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[51]Voice/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>铃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>声或短声音</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>总</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>碟数</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>总</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>曲数</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2016.01.19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015.12.01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.新建</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1.增加ENABLE_FLG，最</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [3]原</t>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>终更新时间</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>2.增加音</t>
     </r>
     <r>
       <rPr>
@@ -476,147 +1741,16 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>创</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [4]影</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [5]游</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>戏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [9]其他</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>状</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：[1]放送中 [2]完</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>结</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [3]新企划 [9]弃置</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ANIME_CHN_NAME</t>
-  </si>
-  <si>
-    <t>ANIME_JPN_NAME</t>
-  </si>
-  <si>
-    <t>ANIME_NN</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ORIGINAL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[varchar](255) NOT NULL,</t>
-  </si>
-  <si>
-    <t>[varchar](10) NOT NULL,</t>
-  </si>
-  <si>
-    <t>[int] NOT NULL,</t>
+      <t>乐相关表格</t>
+    </r>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,6 +1790,45 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -679,7 +1852,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -688,6 +1861,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -983,83 +2186,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C7"/>
+  <dimension ref="A2:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="2" width="38.75" customWidth="1"/>
-    <col min="3" max="3" width="51.75" customWidth="1"/>
+    <col min="1" max="1" width="22.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="51.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:3" ht="67.5">
+      <c r="A6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="94.5">
+      <c r="A7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="67.5">
+      <c r="A8" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
+      <c r="B8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1069,12 +2347,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1084,112 +2362,92 @@
     <col min="3" max="3" width="65.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="43.75" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1201,10 +2459,81 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1216,62 +2545,227 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="47.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="54" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
+    </row>
+    <row r="9" spans="1:4" ht="67.5">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1280,113 +2774,510 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B10" sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="47.625" customWidth="1"/>
-    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40.5">
+      <c r="A3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="94.5">
+      <c r="A5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="55.125" customWidth="1"/>
+    <col min="5" max="5" width="37.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="67.5">
+      <c r="A4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="67.5">
+      <c r="A4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" customFormat="1">
+      <c r="A9" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/SqlServerDBTable/DataBaseDesign.xlsx
+++ b/SqlServerDBTable/DataBaseDesign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="更新履历" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="182">
   <si>
     <t>既有序号，代码中发番</t>
     <phoneticPr fontId="1"/>
@@ -506,12 +506,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[A]OP/ED
-[B]角色歌
-[C]OST</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DESCRIPTION</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -579,10 +573,6 @@
   </si>
   <si>
     <t>ALBUM_INANIME_NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3位数字</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -659,13 +649,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>10]Vocal Song/歌曲 11]Vocal Song Inst. Ver./歌曲伴奏 
-21]Soundtrack 演奏 
-30]Drama/演剧 
-40]Radio/广播剧
-51]Voice/铃声或短声音</t>
-  </si>
-  <si>
     <t>smallint default:1;NOT NULL</t>
   </si>
   <si>
@@ -706,10 +689,6 @@
   </si>
   <si>
     <t>ARTIST_NAME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">smallint not null </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1575,8 +1554,215 @@
   </si>
   <si>
     <r>
-      <t>[10]Vocal Song/歌曲 [11]Vocal Song Inst. Ver./歌曲伴奏 
-[21]Soundtrack 演奏 
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>总</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>碟数</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>总</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>曲数</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2016.01.19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015.12.01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.新建</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1.增加ENABLE_FLG，最</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>终更新时间</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>2.增加音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乐相关表格</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[A]OP/ED
+[B]角色歌
+[C]OST
+[Z]其他</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>[100]Vocal Song/歌曲 
+[101]Vocal Song Inst. Ver./歌曲伴奏 
+[111]Soundtrack 演奏 
+[120]Voice/人声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>铃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>声或短声音
+[121]短声音
+[200]Drama/演</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>剧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+[210]Radio/广播</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">剧
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>[10]Vocal Song/歌曲 
+[11]Soundtrack 演奏 
+[20]Voice/人声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>铃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>声或短声音
+[21]短声音
 [30]Drama/演</t>
     </r>
     <r>
@@ -1623,125 +1809,41 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[51]Voice/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>铃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>声或短声音</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>总</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>碟数</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>总</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>曲数</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2016.01.19</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2015.12.01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.新建</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>1.增加ENABLE_FLG，最</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>终更新时间</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>2.增加音</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>乐相关表格</t>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">smallint not null </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RESOURCE_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>资源ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">待建立 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>资源表</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -1852,7 +1954,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1891,6 +1993,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2188,33 +2293,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2246,7 +2351,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>0</v>
@@ -2257,7 +2362,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -2268,7 +2373,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -2279,7 +2384,7 @@
         <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>3</v>
@@ -2290,10 +2395,10 @@
         <v>51</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="94.5">
@@ -2301,10 +2406,10 @@
         <v>52</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="4" customFormat="1" ht="67.5">
@@ -2312,32 +2417,32 @@
         <v>72</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2430,24 +2535,24 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2501,24 +2606,24 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2605,24 +2710,24 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2748,24 +2853,24 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2884,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="A1:D11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2787,7 +2892,7 @@
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2806,41 +2911,39 @@
         <v>75</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="40.5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="54">
       <c r="A3" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="94.5">
+        <v>165</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="108">
       <c r="A5" s="10" t="s">
         <v>74</v>
       </c>
@@ -2848,80 +2951,80 @@
         <v>68</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -2933,10 +3036,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2956,7 +3059,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2964,13 +3067,13 @@
         <v>66</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E2" s="9"/>
     </row>
@@ -2979,151 +3082,166 @@
         <v>67</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="67.5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="121.5">
       <c r="A4" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
-        <v>155</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>161</v>
+      <c r="A12" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3136,7 +3254,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3150,7 +3268,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3158,124 +3276,124 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="67.5">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:5" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D11" s="4"/>
     </row>

--- a/SqlServerDBTable/DataBaseDesign.xlsx
+++ b/SqlServerDBTable/DataBaseDesign.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="更新履历" sheetId="9" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="T_ALBUM_TBL" sheetId="6" r:id="rId7"/>
     <sheet name="T_TRACK_TBL" sheetId="7" r:id="rId8"/>
     <sheet name="T_ARTIST_TBL" sheetId="8" r:id="rId9"/>
+    <sheet name="T_RESOURCE_TBL" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="192">
   <si>
     <t>既有序号，代码中发番</t>
     <phoneticPr fontId="1"/>
@@ -51,7 +52,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -72,7 +73,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -89,7 +90,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -106,7 +107,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -117,7 +118,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -146,7 +147,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -163,7 +164,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -196,7 +197,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -213,7 +214,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -230,7 +231,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -332,7 +333,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -343,7 +344,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -354,7 +355,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -365,7 +366,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -480,7 +481,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -540,7 +541,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -551,7 +552,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -562,7 +563,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -699,7 +700,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -710,7 +711,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -724,7 +725,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -735,7 +736,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -770,7 +771,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -781,7 +782,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -792,7 +793,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -803,7 +804,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -824,7 +825,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -835,7 +836,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -853,7 +854,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -864,7 +865,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -875,7 +876,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -886,7 +887,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -897,7 +898,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -908,7 +909,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -953,7 +954,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -964,7 +965,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -975,7 +976,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -989,7 +990,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1000,7 +1001,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1017,7 +1018,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1028,7 +1029,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1039,7 +1040,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1050,7 +1051,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1067,7 +1068,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1078,7 +1079,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1103,7 +1104,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1114,7 +1115,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1125,7 +1126,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1143,7 +1144,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1154,7 +1155,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1175,7 +1176,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1205,15 +1206,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ANIME_NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1224,7 +1221,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1235,7 +1232,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1246,7 +1243,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1268,7 +1265,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1279,7 +1276,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1324,7 +1321,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1335,7 +1332,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1346,7 +1343,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1360,7 +1357,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1371,7 +1368,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1388,7 +1385,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1399,7 +1396,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1410,7 +1407,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1421,7 +1418,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1435,7 +1432,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1446,7 +1443,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1457,7 +1454,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1474,7 +1471,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1485,7 +1482,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1496,7 +1493,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1507,7 +1504,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1521,7 +1518,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1532,7 +1529,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1543,7 +1540,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1557,7 +1554,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1568,7 +1565,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1582,7 +1579,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1593,7 +1590,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1622,7 +1619,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1639,7 +1636,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1666,7 +1663,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1677,7 +1674,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1690,7 +1687,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1701,7 +1698,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1713,7 +1710,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1725,7 +1722,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1745,7 +1742,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1756,7 +1753,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1769,7 +1766,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1780,7 +1777,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1792,7 +1789,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1804,7 +1801,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1815,10 +1812,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">smallint not null </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RESOURCE_ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1838,32 +1831,80 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>资源表</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[tinyint] NOT NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tinyint not null </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ANIME_NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_RESOURCT_TBL</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>int identity PK</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源ID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_FILEPATH</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_FILENAME</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENABLE_FLG</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAST_UPDATE_DATETIME</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANIME_NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>动画编号</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1871,7 +1912,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1879,7 +1920,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1887,7 +1928,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1895,7 +1936,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1903,7 +1944,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1911,14 +1952,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1926,9 +1967,16 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1999,15 +2047,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2049,7 +2105,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2081,9 +2137,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2115,6 +2172,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2290,36 +2348,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2328,25 +2386,84 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="51.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -2357,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>48</v>
       </c>
@@ -2368,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
@@ -2379,7 +2496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -2390,7 +2507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="67.5">
+    <row r="6" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -2401,7 +2518,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="94.5">
+    <row r="7" spans="1:3" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -2412,7 +2529,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="67.5">
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>72</v>
       </c>
@@ -2423,7 +2540,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>81</v>
       </c>
@@ -2434,7 +2551,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>83</v>
       </c>
@@ -2453,26 +2570,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31.25" customWidth="1"/>
     <col min="2" max="2" width="46.375" customWidth="1"/>
     <col min="3" max="3" width="65.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27">
+    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -2483,7 +2600,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -2494,7 +2611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2508,7 +2625,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2522,7 +2639,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -2533,7 +2650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
@@ -2544,7 +2661,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>83</v>
       </c>
@@ -2563,26 +2680,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -2593,7 +2710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -2604,7 +2721,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>81</v>
       </c>
@@ -2615,7 +2732,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>83</v>
       </c>
@@ -2634,26 +2751,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
     <col min="2" max="2" width="41.625" customWidth="1"/>
     <col min="3" max="3" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -2664,7 +2781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2675,7 +2792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -2686,7 +2803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -2697,7 +2814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2708,7 +2825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
@@ -2719,7 +2836,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>83</v>
       </c>
@@ -2738,26 +2855,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="47.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="54" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -2768,7 +2885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25" customHeight="1">
+    <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -2782,7 +2899,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -2793,7 +2910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -2804,7 +2921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -2815,7 +2932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2826,7 +2943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -2840,7 +2957,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="67.5">
+    <row r="9" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
@@ -2851,7 +2968,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
@@ -2862,7 +2979,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>83</v>
       </c>
@@ -2880,14 +2997,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
@@ -2895,7 +3012,7 @@
     <col min="4" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>63</v>
       </c>
@@ -2903,7 +3020,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>64</v>
       </c>
@@ -2911,13 +3028,13 @@
         <v>75</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="54">
+    </row>
+    <row r="3" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>88</v>
       </c>
@@ -2925,13 +3042,13 @@
         <v>76</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>85</v>
       </c>
@@ -2939,110 +3056,123 @@
         <v>71</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="108">
-      <c r="A5" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="10" t="s">
+      <c r="D6" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B7" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="10" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="9" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="9" t="s">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D12" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.875" style="3" bestFit="1" customWidth="1"/>
@@ -3051,7 +3181,7 @@
     <col min="5" max="5" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>65</v>
       </c>
@@ -3062,7 +3192,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>66</v>
       </c>
@@ -3077,7 +3207,7 @@
       </c>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>67</v>
       </c>
@@ -3092,7 +3222,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="121.5">
+    <row r="4" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>138</v>
       </c>
@@ -3103,11 +3233,11 @@
         <v>139</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>140</v>
       </c>
@@ -3120,7 +3250,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>142</v>
       </c>
@@ -3133,7 +3263,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>144</v>
       </c>
@@ -3146,7 +3276,7 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>146</v>
       </c>
@@ -3161,84 +3291,84 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>181</v>
-      </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>102</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>106</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>104</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>157</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>158</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>161</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -3250,14 +3380,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="8" bestFit="1" customWidth="1"/>
@@ -3266,7 +3396,7 @@
     <col min="5" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>109</v>
       </c>
@@ -3274,7 +3404,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>110</v>
       </c>
@@ -3288,7 +3418,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>114</v>
       </c>
@@ -3298,19 +3428,19 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="67.5">
+    <row r="4" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>115</v>
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>116</v>
       </c>
@@ -3322,7 +3452,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>119</v>
       </c>
@@ -3334,7 +3464,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>122</v>
       </c>
@@ -3346,7 +3476,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>124</v>
       </c>
@@ -3360,7 +3490,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:5" customFormat="1">
+    <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>126</v>
       </c>
@@ -3373,7 +3503,7 @@
       <c r="D9" s="9"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>128</v>
       </c>
@@ -3385,7 +3515,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>131</v>
       </c>
@@ -3400,5 +3530,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SqlServerDBTable/DataBaseDesign.xlsx
+++ b/SqlServerDBTable/DataBaseDesign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="更新履历" sheetId="9" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="T_TRACK_TBL" sheetId="7" r:id="rId8"/>
     <sheet name="T_ARTIST_TBL" sheetId="8" r:id="rId9"/>
     <sheet name="T_RESOURCE_TBL" sheetId="10" r:id="rId10"/>
+    <sheet name="T_STORAGE_MST" sheetId="11" r:id="rId11"/>
+    <sheet name="T_TRACK_RESOURCE_TBL" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="219">
   <si>
     <t>既有序号，代码中发番</t>
     <phoneticPr fontId="1"/>
@@ -1812,51 +1814,60 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RESOURCE_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">int </t>
+    <t>[tinyint] NOT NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tinyint not null </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ANIME_NO</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>资源ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">待建立 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>资源表</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[tinyint] NOT NULL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">tinyint not null </t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAST_UPDATE_DATETIME</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ANIME_NO</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>动画编号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RESOURCE_TYPE</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>STORAGE_ID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]mp3音源
+[11]lrc歌词
+[21]专辑封面</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>T_RESOURCT_TBL</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>RESOURCE_ID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>int identity PK</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1865,10 +1876,26 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>资源种类</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>储存位置ID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>RESOURCE_FILEPATH</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>nvarchar(1000)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>RESOURCE_FILENAME</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1877,16 +1904,121 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>bit NOT NULL DEFAULT 1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效性FLAG</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>LAST_UPDATE_DATETIME</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>ANIME_NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>动画编号</t>
-    <phoneticPr fontId="1"/>
+    <t>datetime NOT NULL DEFAULT GETDATE()</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>最</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>终</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_STORAGE_MST</t>
+  </si>
+  <si>
+    <t>STORAGE_ID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>STORAGE_PATH</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR(1000)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAST_UPDATE_DATETIME</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINYINT PK</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储ID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终更新时间</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_TRACK_RESOURCE_TBL</t>
+  </si>
+  <si>
+    <t>TRACK_ID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_ID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(10) PK</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>int not null</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌曲ID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终更新时间</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2002,7 +2134,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2041,9 +2173,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2388,52 +2517,213 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>176</v>
+      <c r="A2" t="s">
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>205</v>
+      </c>
+      <c r="B3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>189</v>
+        <v>207</v>
+      </c>
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3000,8 +3290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3062,13 +3352,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D5" s="9"/>
     </row>
@@ -3077,7 +3367,7 @@
         <v>74</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>165</v>
@@ -3166,11 +3456,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3293,85 +3581,70 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" s="9"/>
+        <v>102</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>150</v>
-      </c>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>104</v>
+      <c r="A12" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3384,7 +3657,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3433,7 +3706,7 @@
         <v>80</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>115</v>

--- a/SqlServerDBTable/DataBaseDesign.xlsx
+++ b/SqlServerDBTable/DataBaseDesign.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="更新履历" sheetId="9" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="T_RESOURCE_TBL" sheetId="10" r:id="rId10"/>
     <sheet name="T_STORAGE_MST" sheetId="11" r:id="rId11"/>
     <sheet name="T_TRACK_RESOURCE_TBL" sheetId="12" r:id="rId12"/>
+    <sheet name="T_ARTIST_MAPPING_TBL" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="236">
   <si>
     <t>既有序号，代码中发番</t>
     <phoneticPr fontId="1"/>
@@ -54,7 +55,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -75,7 +76,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -92,7 +93,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -109,7 +110,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -120,7 +121,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -149,7 +150,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -166,7 +167,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -199,7 +200,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -216,7 +217,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -233,7 +234,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -335,7 +336,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -346,7 +347,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -357,7 +358,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -368,7 +369,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -404,10 +405,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[varchar][10] NOT NULL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[varchar](255) NOT NULL</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -483,7 +480,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -543,7 +540,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -554,7 +551,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -565,7 +562,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -702,7 +699,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -713,7 +710,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -727,7 +724,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -738,7 +735,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -757,23 +754,352 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>角色歌（含角色唱OP/ED)FLAG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CHARACTER_LIST</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nvarchar(1000)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+    <t>CV_FLG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>优</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FLAG</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENABLE_FLG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bit NOT NULL DEFAULT 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有效性FLAG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LAST_UPDATE_DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>datetime NOT NULL DEFAULT GETDATE()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>最</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>终</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>曲ID</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>T+9位数字，代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>番</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>所属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专辑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_ALBUM_TBL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TRACK_TYPE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISC_NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专辑编</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TRACK_NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>轨</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TRACK_TITLE_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曲名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ARTIST_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演唱者ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_ARTIST_TBL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -784,819 +1110,358 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>号</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_ANIME_TBL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SALES_YEAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>，'/'分隔</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CV_FLG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>声</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>优</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+      <t>售年份</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENABLE_FLG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bit NOT NULL DEFAULT 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有效性FLAG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LAST_UPDATE_DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>datetime NOT NULL DEFAULT GETDATE()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>最</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>终</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>FLAG</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CV_LIST</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>对应</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+      <t>更新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专辑编</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>声</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>优</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>编</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>A+9位数字，代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>番</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专辑动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>所属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专辑编</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>号</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>组</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ENABLE_FLG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bit NOT NULL DEFAULT 1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>有效性FLAG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LAST_UPDATE_DATETIME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>datetime NOT NULL DEFAULT GETDATE()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>最</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>终</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专辑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>更新</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>时间</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>乐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+      <t>种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>总</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>曲ID</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>T+9位数字，代</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+      <t>碟数</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>总</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>番</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>所属</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>专辑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_ALBUM_TBL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TRACK_TYPE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>音</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>乐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>种</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>类</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DISC_NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>专辑编</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TRACK_NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>音</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>轨</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TRACK_TITLE_NAME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>曲名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ARTIST_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>演唱者ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_ARTIST_TBL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>动</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>画</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>编</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_ANIME_TBL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SALES_YEAR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>售年份</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ENABLE_FLG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bit NOT NULL DEFAULT 1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>有效性FLAG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LAST_UPDATE_DATETIME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>datetime NOT NULL DEFAULT GETDATE()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>最</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>终</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>更新</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>时间</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>专辑编</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>A+9位数字，代</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>番</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>专辑动</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>画种</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>类</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>所属</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>动</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>画内</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>专辑编</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>专辑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>种</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>类</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>总</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>碟数</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>总</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>曲数</t>
     </r>
     <phoneticPr fontId="1"/>
@@ -1621,7 +1486,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1638,7 +1503,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1665,7 +1530,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1676,7 +1541,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1689,7 +1554,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1700,7 +1565,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1712,7 +1577,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1724,7 +1589,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1744,7 +1609,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1755,7 +1620,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1768,7 +1633,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1779,7 +1644,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1791,7 +1656,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1803,7 +1668,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1927,7 +1792,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1938,7 +1803,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1949,7 +1814,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2019,24 +1884,238 @@
   <si>
     <t>最终更新时间</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>角色（含角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)FLAG</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>与CV_FLG互斥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>与CHARACTER_FLG互斥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_ARTIST_MAPPING_TBL</t>
+  </si>
+  <si>
+    <t>ARTIST_ID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺术家ID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(10) NOT NULL</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>优ID</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAPPING_TYPE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>匹配种类
+[1]角色
+[2]声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>优</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CHARACTER_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[varchar][10] NOT NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TINYINT NOT NULL </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[varchar][10]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENABLE_FLG</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>储存路径</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>最终</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2016.02.25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.增加ARTIST_MAPPING表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调整</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ARTIST表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>结构</t>
+    </r>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2044,7 +2123,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2052,7 +2131,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2060,7 +2139,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2068,7 +2147,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2076,7 +2155,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2084,14 +2163,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2099,14 +2178,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2176,7 +2255,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2192,7 +2271,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2234,7 +2313,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2266,10 +2345,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2301,7 +2379,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2477,36 +2554,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2516,14 +2610,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="39.375" bestFit="1" customWidth="1"/>
@@ -2531,83 +2623,89 @@
     <col min="4" max="4" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="40.5">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B5" t="s">
         <v>188</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>189</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B7" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C7" t="s">
         <v>192</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="B8" t="s">
         <v>194</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C8" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2618,55 +2716,53 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" t="s">
         <v>204</v>
-      </c>
-      <c r="B2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2677,53 +2773,55 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2733,123 +2831,212 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="40.5">
+      <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="51.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="67.5">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="94.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:3" ht="94.5">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="67.5">
+      <c r="A8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="6" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2860,48 +3047,48 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="31.25" customWidth="1"/>
     <col min="2" max="2" width="46.375" customWidth="1"/>
     <col min="3" max="3" width="65.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="27">
       <c r="A2" t="s">
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>225</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2912,10 +3099,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2926,10 +3113,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -2940,26 +3127,26 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2970,26 +3157,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3000,7 +3187,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -3011,26 +3198,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3041,37 +3228,37 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
     <col min="2" max="2" width="41.625" customWidth="1"/>
     <col min="3" max="3" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -3082,7 +3269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -3093,7 +3280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -3104,7 +3291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -3115,26 +3302,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3145,26 +3332,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="47.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="54" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -3175,7 +3362,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="14.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -3186,10 +3373,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -3200,7 +3387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -3211,7 +3398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -3222,62 +3409,62 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="67.5">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3287,14 +3474,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
@@ -3302,148 +3489,148 @@
     <col min="4" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="54">
+      <c r="A3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" ht="108">
+      <c r="A6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="108" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+      <c r="B7" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="B9" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -3455,12 +3642,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.875" style="3" bestFit="1" customWidth="1"/>
@@ -3469,179 +3656,179 @@
     <col min="5" max="5" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="C3" s="9" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="121.5">
       <c r="A4" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="9" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -3653,14 +3840,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="8" bestFit="1" customWidth="1"/>
@@ -3669,136 +3856,114 @@
     <col min="5" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="B3" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="67.5">
       <c r="A4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" customFormat="1">
+      <c r="A7" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="9" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="B8" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+      <c r="C9" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="4"/>
+      <c r="D9" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
